--- a/biology/Botanique/Banksia_occidentalis/Banksia_occidentalis.xlsx
+++ b/biology/Botanique/Banksia_occidentalis/Banksia_occidentalis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Banksia rouge des marais
 Banksia occidentalis, le banksia rouge des marais, est une espèce de plante du genre Banksia, famille des Proteaceae. C'est un arbuste ou un petit arbre endémique d'Australie qui se rencontre sur la côte méridionale de l'Australie-Occidentale en trois peuplements disjoints : à Augusta, autour d'Albany et dans la région d'Esperance.
